--- a/AutoPartsWebSite/Content/files/ALFAPARTS-Invoice.xlsx
+++ b/AutoPartsWebSite/Content/files/ALFAPARTS-Invoice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nick\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Source\Repos\AutoParts\AutoPartsWebSite\Content\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,15 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t>Дата</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Номер</t>
   </si>
   <si>
     <t>Количество</t>
+  </si>
+  <si>
+    <t>Марка</t>
   </si>
 </sst>
 </file>
@@ -40,7 +40,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -50,12 +50,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -72,11 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -357,40 +349,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>42613</v>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B2">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
